--- a/private/ADA_web_organizer.xlsx
+++ b/private/ADA_web_organizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Documents\GitHub\algorithmicdesign.github.io\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iicpe\Desktop\algorithmicdesign.github.io\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A645832-C9EA-4791-93D9-10017157F612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB9ADB-EE31-4684-B619-D443FFAAAF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3060" windowWidth="38940" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADA website control" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="519">
   <si>
     <t>GRAMATICA: A general 3D shape grammar interpreter targeting the mass customization of housing</t>
   </si>
@@ -729,9 +729,6 @@
   </si>
   <si>
     <t>Siscog, Lisbon, Portugal</t>
-  </si>
-  <si>
-    <t>António Menezes Leitão has a BSc in Mechanical Engineering, a MSc in Electronics Engineering, and a PhD in Computer Science and Engineering, all from Instituto Superior Técnico (IST) of the University of Lisbon. Currently he is Assistant Professor at the same university, senior researcher at INESC-ID, within the Software Engineering Group, and Coordinator of ADA, teaching, lecturing, and researching on bringing together the fields of Computer Science and Architecture.</t>
   </si>
   <si>
     <t>Filipe Cristóvão</t>
@@ -1490,9 +1487,6 @@
     <t>Metaobject Protocols for Julia</t>
   </si>
   <si>
-    <t>Aceite</t>
-  </si>
-  <si>
     <t>João David, António Leitão</t>
   </si>
   <si>
@@ -1590,6 +1584,27 @@
   </si>
   <si>
     <t>AD Traceability/Illustration</t>
+  </si>
+  <si>
+    <t>Draft??</t>
+  </si>
+  <si>
+    <t>Automation in Construction</t>
+  </si>
+  <si>
+    <t>Connecting design and fabrication through algorithms: current and future prospects for AEC</t>
+  </si>
+  <si>
+    <t>António Menezes Leitão has a BSc in Mechanical Engineering, a MSc in Electronics Engineering, and a PhD in Computer Science and Engineering, all from Instituto Superior Técnico (IST) of the University of Lisbon. Currently he is Associate Professor at the same university, senior researcher at INESC-ID, within the Software Engineering Group, and Coordinator of ADA, teaching, lecturing, and researching on bringing together the fields of Computer Science and Architecture.</t>
+  </si>
+  <si>
+    <t>MSC ENG. ELECTRO</t>
+  </si>
+  <si>
+    <t>Afonso Meneses</t>
+  </si>
+  <si>
+    <t>Hyperparameter Optimization</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1889,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1983,7 +1998,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2287,109 +2301,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L307"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C232" sqref="C224:C232"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="59.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41.6328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1"/>
+    <col min="8" max="8" width="6.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="1"/>
       <c r="C2" s="20"/>
       <c r="D2" s="26"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="1"/>
       <c r="C3" s="20"/>
       <c r="D3" s="26"/>
       <c r="E3" s="36"/>
       <c r="G3" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
-        <v>385</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="56" t="s">
+        <v>384</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="56"/>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D5" s="26">
         <v>2024</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>35</v>
@@ -2398,33 +2412,33 @@
         <v>2023</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="1"/>
       <c r="C8" s="20"/>
       <c r="D8" s="26"/>
       <c r="E8" s="36"/>
       <c r="G8" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="53" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
-        <v>460</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>106</v>
@@ -2434,348 +2448,327 @@
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G9" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="1"/>
       <c r="C11" s="20"/>
       <c r="D11" s="26"/>
       <c r="E11" s="36"/>
       <c r="G11" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="55"/>
+        <v>291</v>
+      </c>
+      <c r="E12" s="54"/>
       <c r="F12" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="3">
-        <f>COUNT(G8:G61)</f>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="G15" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="3">
+        <f>COUNT(G8:G62)</f>
         <v>40</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
-        <v>381</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="50" t="s">
+      <c r="J15" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="57"/>
+      <c r="B17" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="57"/>
+      <c r="B18" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="57"/>
+      <c r="B19" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C19" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>508</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>364</v>
-      </c>
       <c r="D19" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="55"/>
+        <v>291</v>
+      </c>
+      <c r="E19" s="54"/>
       <c r="F19" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D20" s="26">
-        <v>2023</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="57"/>
+      <c r="B20" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="57"/>
       <c r="B21" s="1" t="s">
         <v>447</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D21" s="26">
-        <v>2022</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>379</v>
+        <v>2023</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="G21" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57"/>
       <c r="B22" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D22" s="26">
         <v>2022</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G22" s="12">
         <v>19</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="57"/>
       <c r="B23" s="1" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>141</v>
+        <v>377</v>
       </c>
       <c r="D23" s="26">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G23" s="12">
         <v>19</v>
       </c>
-      <c r="I23" s="41">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" ref="J23:J29" si="0">+COUNTIF(G$15:G$42,I23)</f>
-        <v>3</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" ref="K23:K29" si="1">+COUNTIF(G$45:G$61,I23)</f>
-        <v>2</v>
-      </c>
-      <c r="L23" s="1">
-        <f>+COUNTIF(G$9,I23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57"/>
       <c r="B24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c r="D24" s="26">
         <v>2021</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G24" s="12">
         <v>19</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ref="J24:J30" si="0">+COUNTIF(G$16:G$43,I24)</f>
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K30" si="1">+COUNTIF(G$46:G$62,I24)</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <f>+COUNTIF(G$9,I24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="57"/>
+      <c r="B25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="26">
+        <v>2021</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G25" s="12">
         <v>19</v>
       </c>
-      <c r="J24" s="1">
+      <c r="I25" s="42">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" ref="L24:L29" si="2">+COUNTIF(G$9,I24)</f>
+      <c r="L25" s="1">
+        <f t="shared" ref="L25:L30" si="2">+COUNTIF(G$9,I25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="26">
+    <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="57"/>
+      <c r="B26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="26">
         <v>2021</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="E26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G26" s="12">
         <v>15</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I26" s="42">
         <v>18</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="26">
-        <v>2020</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G26" s="12">
-        <v>17</v>
-      </c>
-      <c r="I26" s="42">
-        <v>17</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -2783,101 +2776,101 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="57"/>
       <c r="B27" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27" s="26">
         <v>2020</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G27" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="57"/>
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D28" s="26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G28" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="57"/>
       <c r="B29" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D29" s="26">
         <v>2019</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G29" s="12">
         <v>17</v>
       </c>
       <c r="I29" s="42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -2892,909 +2885,926 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="57"/>
       <c r="B30" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D30" s="26">
         <v>2019</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G30" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
+        <v>17</v>
+      </c>
+      <c r="I30" s="42">
+        <v>14</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="57"/>
       <c r="B31" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D31" s="26">
         <v>2019</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G31" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="57"/>
       <c r="B32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="26">
+        <v>2019</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G32" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="57"/>
+      <c r="B33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="26">
+        <v>2017</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G33" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="57"/>
+      <c r="B34" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="26">
-        <v>2017</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G32" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="D33" s="26">
-        <v>2016</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G33" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="D34" s="26">
         <v>2016</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G34" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="57"/>
       <c r="B35" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="26">
         <v>2016</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G35" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="57"/>
       <c r="B36" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="26">
         <v>2016</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G36" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="57"/>
       <c r="B37" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="26">
         <v>2016</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="57"/>
+      <c r="B38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="26">
+        <v>2016</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G38" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C38" s="20" t="s">
+    <row r="39" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="57"/>
+      <c r="B39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D39" s="26">
         <v>2015</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G38" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="26">
-        <v>2014</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G39" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="57"/>
       <c r="B40" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="26">
+        <v>2014</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="57"/>
+      <c r="B41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="26">
+        <v>2013</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G41" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="57"/>
+      <c r="B42" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G40" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="1" t="s">
+      <c r="C42" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="26">
+        <v>2012</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="57"/>
+      <c r="B43" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G41" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D43" s="26">
         <v>2010</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G42" s="12">
+      <c r="E43" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="26"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="20"/>
       <c r="D44" s="26"/>
-      <c r="G44" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C45" s="20" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="26"/>
+      <c r="G45" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D46" s="26">
         <v>2021</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G45" s="12">
+      <c r="F46" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="56"/>
-      <c r="B46" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C46" s="20" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="55"/>
+      <c r="B47" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D47" s="26">
         <v>2020</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="12">
+      <c r="E47" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="12">
         <v>20</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="56"/>
-      <c r="B47" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="H47" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="55"/>
+      <c r="B48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="D47" s="26">
-        <v>2019</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G47" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="56"/>
-      <c r="B48" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>108</v>
       </c>
       <c r="D48" s="26">
         <v>2019</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G48" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="55"/>
       <c r="B49" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D49" s="26">
         <v>2019</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
-      <c r="B50" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>251</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="55"/>
+      <c r="B50" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D50" s="26">
         <v>2019</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="55"/>
+      <c r="B51" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
-      <c r="B51" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="26">
+        <v>2019</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="55"/>
+      <c r="B52" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="D51" s="26">
-        <v>2018</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G51" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
-      <c r="B52" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>72</v>
       </c>
       <c r="D52" s="26">
         <v>2018</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G52" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="55"/>
+      <c r="B53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="26">
+        <v>2018</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G53" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="56"/>
-      <c r="B53" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C53" s="20" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="55"/>
+      <c r="B54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="D53" s="26">
-        <v>2017</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G53" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
-      <c r="B54" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="D54" s="26">
         <v>2017</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G54" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="56"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="55"/>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" s="26">
         <v>2017</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G55" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="55"/>
       <c r="B56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="26">
+        <v>2017</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="55"/>
+      <c r="B57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="26">
+        <v>2016</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G57" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="55"/>
+      <c r="B58" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="26">
-        <v>2016</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G56" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="56"/>
-      <c r="B57" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="D57" s="26">
-        <v>2015</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="56"/>
-      <c r="B58" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="D58" s="26">
         <v>2015</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="55"/>
+      <c r="B59" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="26">
+        <v>2015</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="56"/>
-      <c r="B59" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="20" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="55"/>
+      <c r="B60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="D59" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G59" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="D60" s="26">
         <v>2013</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G60" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="55"/>
+      <c r="B61" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="26">
+        <v>2013</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G61" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="56"/>
-      <c r="B61" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" s="20" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="55"/>
+      <c r="B62" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D62" s="26">
         <v>2009</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G61" s="12">
+      <c r="F62" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D64" s="2" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="18"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>496</v>
+        <v>144</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="1" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>497</v>
+        <v>305</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="1" t="s">
-        <v>368</v>
+        <v>480</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>255</v>
+        <v>479</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>387</v>
+        <v>495</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="1" t="s">
-        <v>365</v>
+        <v>509</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>309</v>
+        <v>473</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>388</v>
+        <v>495</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="1" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="1" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="1" t="s">
-        <v>359</v>
+        <v>474</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="1" t="s">
-        <v>340</v>
+        <v>454</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="18"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="33"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="1" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="1" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="33"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="33"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="1" t="s">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="33"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="B85" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="33"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>348</v>
+        <v>145</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="18"/>
@@ -3802,1461 +3812,1460 @@
       <c r="E88" s="13"/>
       <c r="F88" s="33"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="3"/>
+      <c r="B90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="33"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="3"/>
+      <c r="B92" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="F92" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="11">
         <v>2012</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="33"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="1" t="s">
+      <c r="B93" s="12"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="33"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F91" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="F94" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
+      <c r="B96" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="E96" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="11">
         <v>2023</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F98" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="12"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="18"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
-        <v>366</v>
+        <v>481</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" s="28"/>
+        <v>484</v>
+      </c>
       <c r="F101" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
-        <v>355</v>
+        <v>482</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="3"/>
+      <c r="B104" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" s="28"/>
+      <c r="F104" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="3"/>
+      <c r="B105" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E102" s="28"/>
-      <c r="F102" s="33" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
-      <c r="B103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="E105" s="28"/>
+      <c r="F105" s="33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="3"/>
+      <c r="B106" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E103" s="28"/>
-      <c r="F103" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="11">
+      <c r="D106" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E106" s="28"/>
+      <c r="F106" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="11">
         <v>2015</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="20" t="s">
+      <c r="B107" s="12"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E105" s="28"/>
-      <c r="F105" s="33"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="E108" s="28"/>
+      <c r="F108" s="33"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="B110" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
+      <c r="E110" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="11">
         <v>2024</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="54" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
-      <c r="B112" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="12"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="1" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
-      <c r="B114" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="1" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>473</v>
+        <v>254</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>293</v>
+        <v>399</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="1" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="3"/>
+      <c r="B118" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="3"/>
+      <c r="B120" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="3"/>
+      <c r="B122" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="11">
+      <c r="D122" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="11">
         <v>2020</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="B123" s="12"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F121" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F122" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F123" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="1" t="s">
+      <c r="F124" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B125" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B126" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B127" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F124" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
-      <c r="B125" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
-      <c r="B126" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
-      <c r="B127" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="F127" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>336</v>
+        <v>147</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="3"/>
+      <c r="B135" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="3"/>
+      <c r="B136" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F136" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="3"/>
+      <c r="B137" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B135" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="D137" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B138" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="11">
+      <c r="D138" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="11">
         <v>2019</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="33"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B137" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B139" s="12"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="33"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B140" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F140" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B141" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B142" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F137" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B138" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B139" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F139" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B140" s="1" t="s">
+      <c r="F142" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B143" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B144" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F140" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B141" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B142" s="1" t="s">
+      <c r="F144" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B145" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F142" s="34"/>
-      <c r="G142" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B143" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F143" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B144" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F144" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F145" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="3"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F146" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="33"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="20" t="s">
-        <v>134</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B147" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B148" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F148" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
-      <c r="B149" s="20" t="s">
-        <v>135</v>
+      <c r="B149" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F149" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F150" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="33"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F151" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="20" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F152" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="20" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F153" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F154" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F155" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="F156" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="33"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="3"/>
+      <c r="B157" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="20" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="20" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F159" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="3"/>
-      <c r="B160" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F160" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B160" s="12"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="33"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="20" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F161" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F162" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F163" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="20" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F164" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="20" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F165" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="20" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F166" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="20" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="F167" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B168" s="12"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="33"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="3"/>
+      <c r="B168" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="20" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F169" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F170" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F171" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="33"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="20" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F172" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F173" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="3"/>
+      <c r="B174" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="3"/>
+      <c r="B175" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F175" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="3"/>
+      <c r="B176" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F173" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B174" s="20" t="s">
+      <c r="F176" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B177" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F174" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="20" t="s">
+      <c r="F177" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B178" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F175" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="20" t="s">
+      <c r="E178" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B179" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F176" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B177" s="20" t="s">
+      <c r="F179" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B180" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F177" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="11">
+      <c r="E180" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F180" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="11">
         <v>2015</v>
       </c>
-      <c r="B178" s="12"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="33"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B179" s="20" t="s">
+      <c r="B181" s="12"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="33"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B182" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F179" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B180" s="20" t="s">
+      <c r="D182" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F182" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B183" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F180" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B181" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F181" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B182" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F182" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B183" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F183" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B184" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F184" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B185" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F185" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B186" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F183" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="11">
+      <c r="F186" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="11">
         <v>2014</v>
       </c>
-      <c r="B184" s="12"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="33"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B185" s="20" t="s">
+      <c r="B187" s="12"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="33"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B188" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F185" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B186" s="20" t="s">
+      <c r="F188" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B189" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F186" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B187" s="20" t="s">
+      <c r="F189" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B190" s="20" t="s">
         <v>2</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F187" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B188" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F188" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B189" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F189" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B190" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="F190" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B191" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="F191" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B192" s="12"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="3"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B192" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F192" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B193" s="20" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F193" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="3"/>
-      <c r="B194" s="1" t="s">
-        <v>129</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B194" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>187</v>
@@ -5264,1157 +5273,1199 @@
       <c r="D194" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="E194" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="F194" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="18"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="20" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="F196" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B197" s="20" t="s">
-        <v>0</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="3"/>
+      <c r="B197" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
       <c r="F197" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="18"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F199" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="3"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B200" s="20" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F200" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="18"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="3"/>
       <c r="B202" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="3"/>
+      <c r="B203" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F203" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B204" s="12"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B205" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F202" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B203" s="20" t="s">
+      <c r="D205" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F205" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B206" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F203" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
-      <c r="B205" s="8" t="s">
+      <c r="F206" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="2"/>
+      <c r="B208" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
-    </row>
-    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+    </row>
+    <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
         <v>2023</v>
       </c>
-      <c r="B207" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>91</v>
+      <c r="B210" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
         <v>2017</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="2"/>
-      <c r="B220" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E221" s="15" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="2"/>
+      <c r="B223" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E224" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225" s="12"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="6"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="6"/>
+    </row>
+    <row r="227" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A227" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" s="6"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="6"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="12"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+    </row>
+    <row r="231" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A231" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B231" s="31" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B222" s="12"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="6"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B224" s="7" t="s">
+      <c r="E231" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E232" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E233" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A235" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="E237" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" s="6"/>
+      <c r="C238" s="10"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="C239" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D241" s="24"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D242" s="24"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B243" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C243" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D243" s="23"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B244" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C244" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D244" s="24"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B245" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C245" s="44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D248" s="10"/>
+      <c r="E248" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B250" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C250" s="44"/>
+      <c r="E250" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D252" s="23"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E253" s="6"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B255" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C255" s="47"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B256" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C256" s="47"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C257" s="47"/>
+      <c r="D257" s="23"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="E224" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="6"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B226" s="12"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
-    </row>
-    <row r="228" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A228" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B228" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="E228" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A229" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B229" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="E229" s="32" t="s">
+      <c r="B258" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C258" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B259" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C259" s="47"/>
+      <c r="E259" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D260" s="23"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E261" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A230" s="30" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D262" s="23"/>
+      <c r="E262" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D263" s="24"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B265" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C265" s="48"/>
+      <c r="E265" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B230" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="E230" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E232" s="6" t="s">
+      <c r="B266" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E266" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A234" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B234" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="E234" s="32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="6"/>
-      <c r="C235" s="10"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B236" s="12"/>
-      <c r="C236" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E236" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-    </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D238" s="24"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B239" s="7" t="s">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B267" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C267" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D267" s="24"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B271" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C271" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D271" s="24"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D273" s="24"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D239" s="24"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="B240" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C240" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="D240" s="23"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="43" t="s">
+      <c r="C275" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B241" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C241" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="D241" s="24"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B242" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C242" s="44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="D245" s="10"/>
-      <c r="E245" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="B247" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C247" s="44"/>
-      <c r="E247" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B248" s="7" t="s">
+      <c r="B276" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D249" s="23"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E250" s="6"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B252" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C252" s="47"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B253" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C253" s="47"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B254" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C254" s="47"/>
-      <c r="D254" s="23"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B255" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C255" s="45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B256" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C256" s="47"/>
-      <c r="E256" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B257" s="7" t="s">
+      <c r="C276" s="47"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B278" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D257" s="23"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D259" s="23"/>
-      <c r="E259" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D260" s="24"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B262" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C262" s="48"/>
-      <c r="E262" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B264" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C264" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="D264" s="24"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B268" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C268" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D268" s="24"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D270" s="24"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="B273" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C273" s="47"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B275" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C275" s="44" t="s">
+      <c r="C278" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D275" s="24"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="43" t="s">
+      <c r="D278" s="24"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="43" t="s">
         <v>65</v>
-      </c>
-      <c r="B276" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C276" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="D276" s="24"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B277" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C277" s="49"/>
-      <c r="D277" s="6"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B278" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C278" s="47"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="43" t="s">
-        <v>66</v>
       </c>
       <c r="B279" s="44" t="s">
         <v>98</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="D279" s="24"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="46" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="B280" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C280" s="47"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C280" s="49"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="46" t="s">
-        <v>298</v>
+        <v>50</v>
       </c>
       <c r="B281" s="47" t="s">
         <v>98</v>
       </c>
       <c r="C281" s="47"/>
-      <c r="E281" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="5" t="s">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C282" s="44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B283" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C283" s="47"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="B284" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C284" s="47"/>
+      <c r="E284" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B285" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C285" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C282" s="7" t="s">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B287" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C287" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D287" s="23"/>
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B288" s="7" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C283" s="7" t="s">
+      <c r="C288" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B284" s="44" t="s">
+      <c r="D288" s="7"/>
+      <c r="E288" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B289" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C289" s="47"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B290" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C290" s="47"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B294" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C284" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D284" s="23"/>
-      <c r="E284" s="1"/>
-    </row>
-    <row r="285" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B285" s="7" t="s">
+      <c r="C294" s="47"/>
+      <c r="E294" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D285" s="7"/>
-      <c r="E285" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="B286" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="C286" s="47"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B287" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C287" s="47"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E288" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E289" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B290" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B291" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C291" s="47"/>
-      <c r="E291" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E292" s="6" t="s">
+      <c r="E295" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="5"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="5"/>
-      <c r="B294" s="44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B295" s="28" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B298" s="1"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B300" s="25"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="5"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="5"/>
+      <c r="B297" s="44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B298" s="28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B302" s="25"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B303" s="1"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B304" s="25"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" s="1"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="25"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" s="1"/>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B303" s="25"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B304" s="1"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B305" s="25"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B306" s="1"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B307" s="25"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B308" s="1"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B309" s="25"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B310" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A237:E291">
-    <sortCondition ref="A237:A291"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A240:E294">
+    <sortCondition ref="A240:A294"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A45:A61"/>
+    <mergeCell ref="A46:A62"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A15:A42"/>
+    <mergeCell ref="A16:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/private/ADA_web_organizer.xlsx
+++ b/private/ADA_web_organizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iicpe\Desktop\algorithmicdesign.github.io\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB9ADB-EE31-4684-B619-D443FFAAAF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C129C-2AD2-4A10-83D8-4BEE53709596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADA website control" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="525">
   <si>
     <t>GRAMATICA: A general 3D shape grammar interpreter targeting the mass customization of housing</t>
   </si>
@@ -1605,6 +1605,24 @@
   </si>
   <si>
     <t>Hyperparameter Optimization</t>
+  </si>
+  <si>
+    <t>Rodrigo Perestrelo</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>Presentation + Link</t>
+  </si>
+  <si>
+    <t>Electro</t>
+  </si>
+  <si>
+    <t>Lourenço Mourão, António Leitão</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1907,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2008,6 +2026,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2301,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L310"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2492,6 +2511,9 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
@@ -2507,6 +2529,7 @@
         <v>291</v>
       </c>
       <c r="E14" s="54"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D15" s="26"/>
@@ -2515,7 +2538,7 @@
         <v>397</v>
       </c>
       <c r="I15" s="3">
-        <f>COUNT(G8:G62)</f>
+        <f>COUNT(G8:G63)</f>
         <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2526,63 +2549,59 @@
       <c r="A16" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>487</v>
+      <c r="B16" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="54"/>
       <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
-      <c r="B17" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>391</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2024</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="57"/>
-      <c r="B18" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>510</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>391</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="57"/>
       <c r="B19" s="50" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>291</v>
@@ -2598,10 +2617,10 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="57"/>
       <c r="B20" s="50" t="s">
-        <v>385</v>
+        <v>505</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>363</v>
+        <v>506</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>291</v>
@@ -2616,81 +2635,72 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="57"/>
-      <c r="B21" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" s="26">
-        <v>2023</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="57"/>
       <c r="B22" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D22" s="26">
-        <v>2022</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>378</v>
+        <v>2023</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="G22" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="57"/>
       <c r="B23" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D23" s="26">
         <v>2022</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F23" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G23" s="12">
         <v>19</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="57"/>
       <c r="B24" s="1" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>141</v>
+        <v>377</v>
       </c>
       <c r="D24" s="26">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>378</v>
@@ -2698,29 +2708,24 @@
       <c r="G24" s="12">
         <v>19</v>
       </c>
-      <c r="I24" s="41">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" ref="J24:J30" si="0">+COUNTIF(G$16:G$43,I24)</f>
-        <v>3</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" ref="K24:K30" si="1">+COUNTIF(G$46:G$62,I24)</f>
-        <v>2</v>
-      </c>
-      <c r="L24" s="1">
-        <f>+COUNTIF(G$9,I24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I24" s="39"/>
+      <c r="J24" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="57"/>
       <c r="B25" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="D25" s="26">
         <v>2021</v>
@@ -2731,68 +2736,65 @@
       <c r="G25" s="12">
         <v>19</v>
       </c>
-      <c r="I25" s="42">
-        <v>19</v>
+      <c r="I25" s="41">
+        <v>20</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>+COUNTIF(G$16:G$44,I25)</f>
+        <v>3</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="K25:K31" si="0">+COUNTIF(G$47:G$63,I25)</f>
+        <v>2</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L25:L30" si="2">+COUNTIF(G$9,I25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <f>+COUNTIF(G$9,I25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="57"/>
       <c r="B26" s="1" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="26">
         <v>2021</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F26" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G26" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I26" s="42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1">
+        <f>+COUNTIF(G$16:G$44,I26)</f>
+        <v>7</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="L26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L26:L31" si="1">+COUNTIF(G$9,I26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="57"/>
       <c r="B27" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="D27" s="26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>261</v>
@@ -2801,104 +2803,104 @@
         <v>378</v>
       </c>
       <c r="G27" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I27" s="42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1">
+        <f>+COUNTIF(G$16:G$44,I27)</f>
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K27" s="1">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="57"/>
       <c r="B28" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D28" s="26">
         <v>2020</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G28" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1">
+        <f>+COUNTIF(G$16:G$44,I28)</f>
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="57"/>
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D29" s="26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G29" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I29" s="42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1">
+        <f t="shared" ref="J29:J31" si="2">+COUNTIF(G$16:G$44,I29)</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="57"/>
       <c r="B30" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D30" s="26">
         <v>2019</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F30" s="1" t="s">
         <v>378</v>
       </c>
@@ -2906,46 +2908,64 @@
         <v>17</v>
       </c>
       <c r="I30" s="42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="57"/>
       <c r="B31" s="1" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D31" s="26">
         <v>2019</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G31" s="12">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I31" s="42">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="57"/>
       <c r="B32" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D32" s="26">
         <v>2019</v>
@@ -2960,37 +2980,37 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="57"/>
       <c r="B33" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D33" s="26">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G33" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="57"/>
       <c r="B34" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G34" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2999,7 +3019,7 @@
         <v>265</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="26">
         <v>2016</v>
@@ -3008,16 +3028,16 @@
         <v>378</v>
       </c>
       <c r="G35" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="57"/>
       <c r="B36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="26">
         <v>2016</v>
@@ -3026,16 +3046,16 @@
         <v>378</v>
       </c>
       <c r="G36" s="12">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="57"/>
       <c r="B37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="26">
         <v>2016</v>
@@ -3044,16 +3064,16 @@
         <v>378</v>
       </c>
       <c r="G37" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="57"/>
       <c r="B38" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="26">
         <v>2016</v>
@@ -3062,37 +3082,37 @@
         <v>378</v>
       </c>
       <c r="G38" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="57"/>
       <c r="B39" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="26">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G39" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="57"/>
       <c r="B40" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="26">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>378</v>
@@ -3104,142 +3124,142 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="57"/>
       <c r="B41" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G41" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="57"/>
       <c r="B42" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G42" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="57"/>
       <c r="B43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="26">
-        <v>2010</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>261</v>
+        <v>2012</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G43" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="57"/>
+      <c r="B44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="26">
+        <v>2010</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="1"/>
       <c r="C45" s="20"/>
       <c r="D45" s="26"/>
-      <c r="G45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="26"/>
+      <c r="G46" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="55" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D47" s="26">
         <v>2021</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="55"/>
-      <c r="B47" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="26">
-        <v>2020</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="12">
-        <v>20</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="55"/>
       <c r="B48" s="1" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D48" s="26">
-        <v>2019</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="34"/>
       <c r="G48" s="12">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="55"/>
       <c r="B49" s="1" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D49" s="26">
         <v>2019</v>
@@ -3248,16 +3268,16 @@
         <v>378</v>
       </c>
       <c r="G49" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="55"/>
       <c r="B50" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50" s="26">
         <v>2019</v>
@@ -3266,55 +3286,55 @@
         <v>378</v>
       </c>
       <c r="G50" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="55"/>
-      <c r="B51" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>250</v>
+      <c r="B51" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D51" s="26">
         <v>2019</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="F51" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G51" s="12" t="s">
-        <v>391</v>
+      <c r="G51" s="12">
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="55"/>
-      <c r="B52" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>68</v>
+      <c r="B52" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="D52" s="26">
-        <v>2018</v>
+        <v>2019</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G52" s="12">
-        <v>19</v>
+      <c r="G52" s="12" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="55"/>
       <c r="B53" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D53" s="26">
         <v>2018</v>
@@ -3323,34 +3343,34 @@
         <v>378</v>
       </c>
       <c r="G53" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="55"/>
       <c r="B54" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D54" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G54" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="55"/>
       <c r="B55" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" s="26">
         <v>2017</v>
@@ -3359,16 +3379,16 @@
         <v>378</v>
       </c>
       <c r="G55" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="55"/>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" s="26">
         <v>2017</v>
@@ -3383,46 +3403,46 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="55"/>
       <c r="B57" s="1" t="s">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G57" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="55"/>
       <c r="B58" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="26">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G58" s="12">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="55"/>
       <c r="B59" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="26">
         <v>2015</v>
@@ -3431,34 +3451,34 @@
         <v>378</v>
       </c>
       <c r="G59" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="55"/>
       <c r="B60" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="26">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G60" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="55"/>
       <c r="B61" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" s="26">
         <v>2013</v>
@@ -3467,139 +3487,142 @@
         <v>378</v>
       </c>
       <c r="G61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="55"/>
       <c r="B62" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="55"/>
+      <c r="B63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="26">
+        <v>2009</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" s="12">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="17" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E66" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F66" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="11">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="11">
         <v>2024</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E68" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="11">
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="11">
         <v>2023</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="12"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="11">
+    <row r="72" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11">
         <v>2022</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>378</v>
-      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="1" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>495</v>
@@ -3611,13 +3634,13 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="1" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>366</v>
+        <v>473</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>378</v>
@@ -3626,13 +3649,13 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="1" t="s">
-        <v>367</v>
+        <v>455</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>378</v>
@@ -3641,13 +3664,13 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>378</v>
@@ -3656,13 +3679,13 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="1" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>378</v>
@@ -3671,502 +3694,503 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="11">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11">
         <v>2021</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
-      <c r="B80" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F81" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="11">
+      <c r="F82" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11">
         <v>2020</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="33"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
-      <c r="B83" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>378</v>
-      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="1" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>144</v>
+        <v>372</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F85" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="11">
+      <c r="F86" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="11">
         <v>2019</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="33"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="12"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="33"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F87" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="11">
+      <c r="F88" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="11">
         <v>2018</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="33"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
-      <c r="B89" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="33"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="3"/>
+      <c r="B91" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E91" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="F90" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="11">
+      <c r="F91" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="11">
         <v>2016</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="33"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="12"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="33"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="11">
+      <c r="F93" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="11">
         <v>2012</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="33"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="12"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="33"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F94" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-      <c r="B96" s="17" t="s">
+      <c r="F95" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
+      <c r="B97" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E97" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F97" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="3"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="11">
+      <c r="A98" s="3"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="11">
         <v>2023</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="3"/>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="12"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="11">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="11">
         <v>2022</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="3"/>
-      <c r="B101" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F101" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="3"/>
+      <c r="B103" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F102" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="11">
+      <c r="F103" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="11">
         <v>2021</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="3"/>
-      <c r="B104" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E104" s="28"/>
-      <c r="F104" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="33" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="33" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="11">
+      <c r="A107" s="3"/>
+      <c r="B107" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E107" s="28"/>
+      <c r="F107" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="11">
         <v>2015</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="1" t="s">
+      <c r="B108" s="12"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B108" s="20" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E108" s="28"/>
-      <c r="F108" s="33"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-      <c r="B110" s="17" t="s">
+      <c r="E109" s="28"/>
+      <c r="F109" s="33"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="2"/>
+      <c r="B111" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E111" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F110" s="16" t="s">
+      <c r="F111" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="11">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="11">
         <v>2024</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="3"/>
-      <c r="B113" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F113" s="22"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="C114" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" s="54"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="1" t="s">
-        <v>398</v>
+        <v>508</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F115" s="22"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="3"/>
-      <c r="B116" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="A116" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="1" t="s">
-        <v>477</v>
+        <v>398</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>452</v>
+        <v>254</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>292</v>
+        <v>399</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>378</v>
@@ -4175,28 +4199,25 @@
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>378</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>378</v>
@@ -4205,40 +4226,43 @@
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>378</v>
@@ -4246,50 +4270,49 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="18"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="3"/>
       <c r="B124" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F124" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B125" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B126" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="F126" s="33" t="s">
         <v>361</v>
@@ -4297,43 +4320,41 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F127" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B128" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F128" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B129" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="3"/>
-      <c r="B128" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F128" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="3"/>
-      <c r="B129" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="F129" s="33" t="s">
         <v>361</v>
@@ -4342,13 +4363,13 @@
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="1" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>335</v>
+        <v>147</v>
       </c>
       <c r="F130" s="33" t="s">
         <v>361</v>
@@ -4357,10 +4378,10 @@
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>335</v>
@@ -4372,10 +4393,10 @@
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>335</v>
@@ -4387,13 +4408,13 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="F133" s="33" t="s">
         <v>361</v>
@@ -4402,13 +4423,13 @@
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="F134" s="33" t="s">
         <v>361</v>
@@ -4417,10 +4438,10 @@
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>154</v>
@@ -4432,10 +4453,10 @@
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>154</v>
@@ -4447,82 +4468,84 @@
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="3"/>
+      <c r="B138" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="3"/>
+      <c r="B139" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F137" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B138" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="33"/>
+      <c r="F139" s="33" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>147</v>
+        <v>327</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="F140" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B141" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="A141" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="33"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>147</v>
@@ -4533,13 +4556,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F143" s="33" t="s">
         <v>361</v>
@@ -4547,13 +4570,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F144" s="33" t="s">
         <v>361</v>
@@ -4561,28 +4584,27 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F145" s="34"/>
-      <c r="G145" s="1" t="s">
-        <v>461</v>
+        <v>184</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F146" s="33" t="s">
         <v>361</v>
@@ -4590,24 +4612,25 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F147" s="33" t="s">
-        <v>361</v>
+      <c r="F147" s="34"/>
+      <c r="G147" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>154</v>
@@ -4617,12 +4640,11 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="3"/>
       <c r="B149" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>154</v>
@@ -4632,52 +4654,51 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="33"/>
+      <c r="B150" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
-      <c r="B151" s="20" t="s">
-        <v>134</v>
+      <c r="B151" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F151" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="3"/>
-      <c r="B152" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="A152" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B152" s="12"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="33"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>147</v>
@@ -4689,13 +4710,13 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F154" s="33" t="s">
         <v>361</v>
@@ -4704,13 +4725,13 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F155" s="33" t="s">
         <v>361</v>
@@ -4719,13 +4740,13 @@
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F156" s="33" t="s">
         <v>361</v>
@@ -4734,13 +4755,13 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F157" s="33" t="s">
         <v>361</v>
@@ -4749,13 +4770,13 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F158" s="33" t="s">
         <v>361</v>
@@ -4764,68 +4785,68 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F159" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B160" s="12"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="33"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="20" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F161" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="3"/>
-      <c r="B162" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F162" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="A162" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B162" s="12"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="33"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F163" s="33" t="s">
         <v>361</v>
@@ -4834,13 +4855,13 @@
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="20" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F164" s="33" t="s">
         <v>361</v>
@@ -4849,10 +4870,10 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>147</v>
@@ -4864,13 +4885,13 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="20" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F166" s="33" t="s">
         <v>361</v>
@@ -4879,13 +4900,13 @@
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="20" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F167" s="33" t="s">
         <v>361</v>
@@ -4894,10 +4915,10 @@
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="20" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>154</v>
@@ -4909,13 +4930,13 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="20" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F169" s="33" t="s">
         <v>361</v>
@@ -4924,71 +4945,71 @@
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="20" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F170" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="3"/>
+      <c r="B171" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F170" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="33"/>
+      <c r="F171" s="33" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="20" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F172" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="3"/>
-      <c r="B173" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F173" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="A173" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B173" s="12"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="33"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F174" s="33" t="s">
         <v>361</v>
@@ -4997,13 +5018,13 @@
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F175" s="33" t="s">
         <v>361</v>
@@ -5012,58 +5033,57 @@
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="3"/>
+      <c r="B177" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="3"/>
+      <c r="B178" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F176" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B177" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F177" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B178" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F178" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B179" s="20" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F179" s="33" t="s">
         <v>361</v>
@@ -5071,13 +5091,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B180" s="20" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>261</v>
@@ -5087,52 +5107,55 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="33"/>
+      <c r="B181" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F181" s="33" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B182" s="20" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>292</v>
+        <v>315</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F182" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B183" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F183" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="A183" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B183" s="12"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="33"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B184" s="20" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="F184" s="33" t="s">
         <v>361</v>
@@ -5140,51 +5163,55 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B185" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F185" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B186" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F186" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B187" s="12"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="33"/>
+      <c r="B187" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B188" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>181</v>
@@ -5194,28 +5221,24 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B189" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F189" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="A189" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B189" s="12"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="33"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B190" s="20" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="F190" s="33" t="s">
         <v>361</v>
@@ -5223,13 +5246,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B191" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F191" s="33" t="s">
         <v>361</v>
@@ -5237,13 +5260,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B192" s="20" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="F192" s="33" t="s">
         <v>361</v>
@@ -5251,13 +5274,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B193" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F193" s="33" t="s">
         <v>361</v>
@@ -5265,114 +5288,118 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B194" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F194" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B195" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B196" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F194" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="11">
+      <c r="F196" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="11">
         <v>2013</v>
       </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="3"/>
-      <c r="B196" s="20" t="s">
+      <c r="B197" s="12"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="3"/>
+      <c r="B198" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F196" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="3"/>
-      <c r="B197" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B198" s="12"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
+      <c r="F198" s="33" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
-      <c r="B199" s="20" t="s">
+      <c r="B199" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F199" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B200" s="12"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="3"/>
+      <c r="B201" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F199" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B200" s="20" t="s">
+      <c r="F201" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B202" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F200" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="3"/>
-      <c r="B202" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>147</v>
@@ -5382,125 +5409,121 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="3"/>
-      <c r="B203" s="20" t="s">
+      <c r="A203" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B203" s="12"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="3"/>
+      <c r="B204" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F204" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="3"/>
+      <c r="B205" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F203" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="11">
+      <c r="F205" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="11">
         <v>2010</v>
       </c>
-      <c r="B204" s="12"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B205" s="20" t="s">
+      <c r="B206" s="12"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B207" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F205" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B206" s="20" t="s">
+      <c r="F207" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B208" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F206" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="2"/>
-      <c r="B208" s="8" t="s">
+      <c r="F208" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="2"/>
+      <c r="B210" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-    </row>
-    <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+    </row>
+    <row r="212" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
         <v>2023</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B212" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>91</v>
+        <v>2023</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>497</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>91</v>
@@ -5508,8 +5531,8 @@
       <c r="C214" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>197</v>
+      <c r="D214" s="7" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -5517,928 +5540,950 @@
         <v>2017</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
         <v>2011</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A223" s="2"/>
-      <c r="B223" s="8" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="2"/>
+      <c r="B225" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E224" s="15" t="s">
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E226" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" s="11" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B225" s="12"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A226" s="6"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A227" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="B227" s="12"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="C228" s="10"/>
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A229" s="11" t="s">
+    <row r="229" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A229" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="6"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="6"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-    </row>
-    <row r="231" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B231" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E231" s="32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="B232" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="E232" s="32" t="s">
-        <v>121</v>
-      </c>
+      <c r="B231" s="12"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
     </row>
     <row r="233" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A233" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E233" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A234" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E234" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B233" s="31" t="s">
+      <c r="B235" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="E233" s="32" t="s">
+      <c r="E235" s="32" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A234" s="5" t="s">
+    <row r="236" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B236" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E236" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A235" s="5" t="s">
+    <row r="237" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A237" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B237" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E237" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A236" s="5" t="s">
+    <row r="238" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A238" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B238" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="E238" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A237" s="30" t="s">
+    <row r="239" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B237" s="31" t="s">
+      <c r="B239" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="E237" s="32" t="s">
+      <c r="E239" s="32" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A238" s="6"/>
-      <c r="C238" s="10"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A239" s="11" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="6"/>
+      <c r="C240" s="10"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="14" t="s">
+      <c r="B241" s="12"/>
+      <c r="C241" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D239" s="11" t="s">
+      <c r="D241" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E239" s="14" t="s">
+      <c r="E241" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-    </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="5" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B243" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D241" s="24"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A242" s="5" t="s">
+      <c r="D243" s="24"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B244" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="D242" s="24"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A243" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="B243" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C243" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="D243" s="23"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A244" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="B244" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C244" s="45" t="s">
-        <v>232</v>
       </c>
       <c r="D244" s="24"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B245" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C245" s="44" t="s">
+      <c r="C245" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D245" s="23"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B246" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C246" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D246" s="24"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B247" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C247" s="44" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A246" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A247" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D248" s="10"/>
-      <c r="E248" s="6" t="s">
-        <v>110</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>98</v>
+        <v>407</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A250" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="B250" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C250" s="44"/>
+      <c r="A250" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D250" s="10"/>
       <c r="E250" s="6" t="s">
-        <v>299</v>
+        <v>110</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D252" s="23"/>
+        <v>414</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B252" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C252" s="44"/>
+      <c r="E252" s="6" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D254" s="23"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B255" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E253" s="6"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A254" s="5" t="s">
+      <c r="E255" s="6"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B256" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C256" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E254" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A255" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B255" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C255" s="47"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A256" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B256" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C256" s="47"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="46" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="B257" s="47" t="s">
         <v>98</v>
       </c>
       <c r="C257" s="47"/>
-      <c r="D257" s="23"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A258" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="B258" s="44" t="s">
+      <c r="A258" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B258" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C258" s="45" t="s">
-        <v>224</v>
-      </c>
+      <c r="C258" s="47"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C259" s="47"/>
+      <c r="D259" s="23"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B260" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C260" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B259" s="47" t="s">
+      <c r="B261" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C259" s="47"/>
-      <c r="E259" s="6" t="s">
+      <c r="C261" s="47"/>
+      <c r="E261" s="6" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A260" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D260" s="23"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A261" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>407</v>
+        <v>99</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>230</v>
+        <v>441</v>
       </c>
       <c r="D262" s="23"/>
-      <c r="E262" s="6" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D263" s="24"/>
+        <v>457</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D264" s="23"/>
+      <c r="E264" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D265" s="24"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B266" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A265" s="46" t="s">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B265" s="47" t="s">
+      <c r="B267" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C265" s="48"/>
-      <c r="E265" s="6" t="s">
+      <c r="C267" s="48"/>
+      <c r="E267" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="5" t="s">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B268" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C268" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E266" s="6" t="s">
+      <c r="E268" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A267" s="43" t="s">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B267" s="44" t="s">
+      <c r="B269" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C267" s="45" t="s">
+      <c r="C269" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D267" s="24"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A268" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A269" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>466</v>
-      </c>
+      <c r="D269" s="24"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
-        <v>104</v>
+        <v>421</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>122</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A271" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B271" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C271" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D271" s="24"/>
+      <c r="A271" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>426</v>
+        <v>104</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A273" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>428</v>
+      <c r="A273" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B273" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C273" s="44" t="s">
+        <v>227</v>
       </c>
       <c r="D273" s="24"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>467</v>
+        <v>369</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D275" s="24"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A276" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B276" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C276" s="47"/>
+      <c r="A276" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B278" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C278" s="47"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B279" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C279" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A278" s="43" t="s">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B278" s="44" t="s">
+      <c r="B280" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C278" s="44" t="s">
+      <c r="C280" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D278" s="24"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A279" s="43" t="s">
+      <c r="D280" s="24"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B279" s="44" t="s">
+      <c r="B281" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C279" s="44" t="s">
+      <c r="C281" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="D279" s="24"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A280" s="46" t="s">
+      <c r="D281" s="24"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B280" s="47" t="s">
+      <c r="B282" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C280" s="49"/>
-      <c r="D280" s="6"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A281" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B281" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C281" s="47"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A282" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B282" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C282" s="44" t="s">
-        <v>222</v>
-      </c>
+      <c r="C282" s="49"/>
+      <c r="D282" s="6"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B283" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C283" s="47"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B284" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C284" s="44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="B283" s="47" t="s">
+      <c r="B285" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C283" s="47"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A284" s="46" t="s">
+      <c r="C285" s="47"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="B284" s="47" t="s">
+      <c r="B286" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C284" s="47"/>
-      <c r="E284" s="6" t="s">
+      <c r="C286" s="47"/>
+      <c r="E286" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A285" s="5" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B287" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C287" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A286" s="5" t="s">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B288" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C288" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="287" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="43" t="s">
+    <row r="289" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B287" s="44" t="s">
+      <c r="B289" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C287" s="44" t="s">
+      <c r="C289" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="D287" s="23"/>
-      <c r="E287" s="1"/>
-    </row>
-    <row r="288" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="5" t="s">
+      <c r="D289" s="23"/>
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B290" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D288" s="7"/>
-      <c r="E288" s="6" t="s">
+      <c r="D290" s="7"/>
+      <c r="E290" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A289" s="43" t="s">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="B289" s="44" t="s">
+      <c r="B291" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="C289" s="47"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A290" s="46" t="s">
+      <c r="C291" s="47"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B290" s="47" t="s">
+      <c r="B292" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C290" s="47"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>404</v>
-      </c>
+      <c r="C292" s="47"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A294" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B294" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C294" s="47"/>
+        <v>357</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>469</v>
+      </c>
       <c r="E294" s="6" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B296" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C296" s="47"/>
+      <c r="E296" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B297" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E295" s="6" t="s">
+      <c r="E297" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A296" s="5"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A297" s="5"/>
-      <c r="B297" s="44" t="s">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="5"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="5"/>
+      <c r="B299" s="44" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B298" s="28" t="s">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B300" s="28" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A300" s="5" t="s">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B302" s="7" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B301" s="1"/>
-    </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B303" s="25"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B304" s="1"/>
+      <c r="B303" s="1"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B305" s="25"/>
@@ -6458,14 +6503,20 @@
     <row r="310" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B310" s="1"/>
     </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B311" s="25"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B312" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A240:E294">
-    <sortCondition ref="A240:A294"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A242:E296">
+    <sortCondition ref="A242:A296"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A46:A62"/>
+    <mergeCell ref="A47:A63"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A16:A43"/>
+    <mergeCell ref="A16:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/private/ADA_web_organizer.xlsx
+++ b/private/ADA_web_organizer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iicpe\Desktop\algorithmicdesign.github.io\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C129C-2AD2-4A10-83D8-4BEE53709596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B28B8B-CE33-4A0B-8E84-EA46E12DE0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="526">
   <si>
     <t>GRAMATICA: A general 3D shape grammar interpreter targeting the mass customization of housing</t>
   </si>
@@ -1508,9 +1508,6 @@
     <t>International Society for Intelligent Construction (ISIC) Conference</t>
   </si>
   <si>
-    <t>Modelação Procedimental de Formas Arquitectónicas</t>
-  </si>
-  <si>
     <t>Lourenço Isidro do Carmo Neiva Mourão</t>
   </si>
   <si>
@@ -1559,9 +1556,6 @@
     <t>Architecture Student</t>
   </si>
   <si>
-    <t>A Julia MOP</t>
-  </si>
-  <si>
     <t>Eduardo Miguel Caetano Espadeiro</t>
   </si>
   <si>
@@ -1613,16 +1607,25 @@
     <t>Computer Vision</t>
   </si>
   <si>
-    <t>Presentation + Link</t>
-  </si>
-  <si>
     <t>Electro</t>
   </si>
   <si>
-    <t>Lourenço Mourão, António Leitão</t>
-  </si>
-  <si>
-    <t>???</t>
+    <t>Procedural Modeling of Architectonic Shapes</t>
+  </si>
+  <si>
+    <t>Liberalitas: Metaobject Protocol for Julia</t>
+  </si>
+  <si>
+    <t>João David, Inês Pereira, Catarina Belém, António Leitão</t>
+  </si>
+  <si>
+    <t>Inverse AD</t>
+  </si>
+  <si>
+    <t>Behind Algorithmic Geometric Patterns: A Framework for Facade Design Exploration</t>
+  </si>
+  <si>
+    <t>Formal Methods in Architecture</t>
   </si>
 </sst>
 </file>
@@ -2320,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L312"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2386,7 +2389,7 @@
         <v>384</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>106</v>
@@ -2422,7 +2425,7 @@
         <v>383</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>35</v>
@@ -2434,7 +2437,7 @@
         <v>449</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2512,18 +2515,18 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>291</v>
@@ -2539,7 +2542,7 @@
       </c>
       <c r="I15" s="3">
         <f>COUNT(G8:G63)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>393</v>
@@ -2550,10 +2553,10 @@
         <v>380</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>291</v>
@@ -2566,42 +2569,42 @@
     <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
       <c r="B17" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>486</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>487</v>
       </c>
       <c r="D17" s="26">
         <v>2024</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>521</v>
-      </c>
-      <c r="G17" s="12"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="12">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="57"/>
       <c r="B18" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D18" s="26">
         <v>2024</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>521</v>
-      </c>
-      <c r="G18" s="12"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="12">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="57"/>
       <c r="B19" s="50" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>291</v>
@@ -2617,10 +2620,10 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="57"/>
       <c r="B20" s="50" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>291</v>
@@ -2810,7 +2813,7 @@
       </c>
       <c r="J27" s="1">
         <f>+COUNTIF(G$16:G$44,I27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
@@ -2846,7 +2849,7 @@
       </c>
       <c r="J28" s="1">
         <f>+COUNTIF(G$16:G$44,I28)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
@@ -3565,23 +3568,27 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="B69" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="D69" s="54"/>
     </row>
     <row r="70" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
@@ -3595,10 +3602,10 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>305</v>
@@ -3625,7 +3632,7 @@
         <v>479</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>378</v>
@@ -3634,13 +3641,13 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>473</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>378</v>
@@ -3971,265 +3978,256 @@
       <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="3"/>
+      <c r="B101" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="11">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="11">
         <v>2022</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="3"/>
-      <c r="B102" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="3"/>
+      <c r="B104" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F103" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="11">
+      <c r="F104" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="11">
         <v>2021</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="3"/>
-      <c r="B105" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E105" s="28"/>
-      <c r="F105" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="33" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="33" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="11">
+      <c r="A108" s="3"/>
+      <c r="B108" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E108" s="28"/>
+      <c r="F108" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="11">
         <v>2015</v>
       </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="1" t="s">
+      <c r="B109" s="12"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B109" s="20" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E109" s="28"/>
-      <c r="F109" s="33"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-      <c r="B111" s="17" t="s">
+      <c r="E110" s="28"/>
+      <c r="F110" s="33"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="2"/>
+      <c r="B112" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E112" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F111" s="16" t="s">
+      <c r="F112" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="11">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="11">
         <v>2024</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="3"/>
-      <c r="B114" s="54" t="s">
-        <v>524</v>
-      </c>
-      <c r="C114" s="54" t="s">
-        <v>523</v>
-      </c>
-      <c r="D114" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="E114" s="54"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
-      <c r="B115" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="3"/>
+      <c r="B116" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F115" s="22"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="11">
+      <c r="F116" s="22"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="11">
         <v>2022</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="3"/>
-      <c r="B117" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>378</v>
-      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="1" t="s">
-        <v>470</v>
+        <v>398</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>452</v>
+        <v>254</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>471</v>
+        <v>399</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>378</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>292</v>
@@ -4241,13 +4239,13 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="1" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>378</v>
@@ -4256,77 +4254,78 @@
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="1" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="11">
+      <c r="A123" s="3"/>
+      <c r="B123" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="11">
         <v>2021</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="3"/>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="12"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="3"/>
+      <c r="B125" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="11">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="11">
         <v>2020</v>
       </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-    </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="12"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B127" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="F127" s="33" t="s">
         <v>361</v>
@@ -4334,10 +4333,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>338</v>
@@ -4348,25 +4347,24 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B130" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="3"/>
-      <c r="B130" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>147</v>
@@ -4378,13 +4376,13 @@
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>335</v>
+        <v>147</v>
       </c>
       <c r="F131" s="33" t="s">
         <v>361</v>
@@ -4393,10 +4391,10 @@
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>335</v>
@@ -4408,10 +4406,10 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>335</v>
@@ -4423,10 +4421,10 @@
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>335</v>
@@ -4438,13 +4436,13 @@
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="F135" s="33" t="s">
         <v>361</v>
@@ -4453,10 +4451,10 @@
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>154</v>
@@ -4468,10 +4466,10 @@
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>154</v>
@@ -4483,10 +4481,10 @@
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>154</v>
@@ -4498,30 +4496,28 @@
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F139" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="3"/>
+      <c r="B140" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F139" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B140" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>318</v>
@@ -4531,35 +4527,38 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="11">
+      <c r="B141" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="11">
         <v>2019</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="33"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B142" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="33"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>147</v>
@@ -4570,10 +4569,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>147</v>
@@ -4584,13 +4583,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F145" s="33" t="s">
         <v>361</v>
@@ -4598,10 +4597,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>184</v>
@@ -4612,39 +4611,39 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F147" s="34"/>
-      <c r="G147" s="1" t="s">
-        <v>461</v>
+        <v>184</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F148" s="33" t="s">
-        <v>361</v>
+      <c r="F148" s="34"/>
+      <c r="G148" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>154</v>
@@ -4655,10 +4654,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>154</v>
@@ -4668,12 +4667,11 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="3"/>
       <c r="B151" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>154</v>
@@ -4683,37 +4681,37 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="11">
+      <c r="A152" s="3"/>
+      <c r="B152" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F152" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="11">
         <v>2018</v>
       </c>
-      <c r="B152" s="12"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="33"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="3"/>
-      <c r="B153" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F153" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="33"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>147</v>
@@ -4725,10 +4723,10 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>147</v>
@@ -4740,13 +4738,13 @@
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F156" s="33" t="s">
         <v>361</v>
@@ -4755,13 +4753,13 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F157" s="33" t="s">
         <v>361</v>
@@ -4770,10 +4768,10 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>154</v>
@@ -4785,13 +4783,13 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F159" s="33" t="s">
         <v>361</v>
@@ -4800,10 +4798,10 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>157</v>
@@ -4815,50 +4813,50 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F161" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="3"/>
+      <c r="B162" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F161" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="11">
+      <c r="F162" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="11">
         <v>2017</v>
       </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="33"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="3"/>
-      <c r="B163" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F163" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="33"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>160</v>
@@ -4870,13 +4868,13 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F165" s="33" t="s">
         <v>361</v>
@@ -4885,10 +4883,10 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="20" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>147</v>
@@ -4900,10 +4898,10 @@
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>147</v>
@@ -4915,13 +4913,13 @@
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F168" s="33" t="s">
         <v>361</v>
@@ -4930,10 +4928,10 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="20" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>154</v>
@@ -4945,10 +4943,10 @@
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>154</v>
@@ -4960,13 +4958,13 @@
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="20" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F171" s="33" t="s">
         <v>361</v>
@@ -4975,56 +4973,56 @@
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="3"/>
+      <c r="B173" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F172" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="11">
+      <c r="F173" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="11">
         <v>2016</v>
       </c>
-      <c r="B173" s="12"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="33"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="3"/>
-      <c r="B174" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F174" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B174" s="12"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="33"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="20" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F175" s="33" t="s">
         <v>361</v>
@@ -5033,13 +5031,13 @@
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="20" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F176" s="33" t="s">
         <v>361</v>
@@ -5048,7 +5046,7 @@
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="20" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>174</v>
@@ -5063,24 +5061,25 @@
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="3"/>
+      <c r="B179" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F178" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B179" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>157</v>
@@ -5091,30 +5090,30 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B180" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F180" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B181" s="20" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F181" s="33" t="s">
         <v>361</v>
@@ -5122,54 +5121,54 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B182" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F182" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B183" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F182" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="11">
+      <c r="F183" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="11">
         <v>2015</v>
       </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="33"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B184" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F184" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B184" s="12"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="33"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B185" s="20" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="F185" s="33" t="s">
         <v>361</v>
@@ -5177,10 +5176,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B186" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>147</v>
@@ -5191,68 +5190,68 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B187" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F187" s="33" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B188" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B189" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F188" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="11">
+      <c r="F189" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="11">
         <v>2014</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="33"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B190" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F190" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B190" s="12"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="33"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B191" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F191" s="33" t="s">
         <v>361</v>
@@ -5260,13 +5259,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B192" s="20" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="F192" s="33" t="s">
         <v>361</v>
@@ -5274,13 +5273,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B193" s="20" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="F193" s="33" t="s">
         <v>361</v>
@@ -5288,13 +5287,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B194" s="20" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F194" s="33" t="s">
         <v>361</v>
@@ -5302,13 +5301,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B195" s="20" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="F195" s="33" t="s">
         <v>361</v>
@@ -5316,90 +5315,90 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B196" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F196" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B197" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F196" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="11">
+      <c r="F197" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="11">
         <v>2013</v>
       </c>
-      <c r="B197" s="12"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="3"/>
-      <c r="B198" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F198" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B198" s="12"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F199" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="3"/>
+      <c r="B200" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F199" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="11">
+      <c r="F200" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="11">
         <v>2012</v>
       </c>
-      <c r="B200" s="12"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="3"/>
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="12"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="3"/>
+      <c r="B202" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F201" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B202" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>147</v>
@@ -5409,135 +5408,135 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="11">
+      <c r="B203" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F203" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="11">
         <v>2011</v>
       </c>
-      <c r="B203" s="12"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="3"/>
-      <c r="B204" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F204" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B204" s="12"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F205" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="3"/>
+      <c r="B206" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F205" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="11">
+      <c r="F206" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="11">
         <v>2010</v>
       </c>
-      <c r="B206" s="12"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B207" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F207" s="33" t="s">
-        <v>361</v>
-      </c>
+      <c r="B207" s="12"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B208" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F208" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B209" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F208" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A210" s="2"/>
-      <c r="B210" s="8" t="s">
+      <c r="F209" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="2"/>
+      <c r="B211" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
-    </row>
-    <row r="212" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+    </row>
+    <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>2023</v>
       </c>
       <c r="B213" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D213" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
+      <c r="D214" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
         <v>2022</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
-        <v>2017</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>91</v>
@@ -5545,11 +5544,11 @@
       <c r="C215" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D215" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>2017</v>
       </c>
@@ -5560,447 +5559,452 @@
         <v>81</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>2017</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>2016</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A220" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>2012</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D223" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" s="2"/>
-      <c r="B225" s="8" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="2"/>
+      <c r="B226" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E226" s="15" t="s">
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E227" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A227" s="11" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A228" s="6"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A229" s="5" t="s">
+      <c r="B228" s="12"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" s="6"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="6"/>
+    </row>
+    <row r="230" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A230" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B229" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="E229" s="6" t="s">
+      <c r="B230" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A230" s="6"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="6"/>
-    </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="6"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="6"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B231" s="12"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-    </row>
-    <row r="233" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B233" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E233" s="32" t="s">
-        <v>243</v>
-      </c>
+      <c r="B232" s="12"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
     </row>
     <row r="234" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A234" s="30" t="s">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>401</v>
+        <v>247</v>
       </c>
       <c r="E234" s="32" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A235" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E235" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B235" s="31" t="s">
+      <c r="B236" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="E235" s="32" t="s">
+      <c r="E236" s="32" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="5" t="s">
+    <row r="237" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B236" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E236" s="6" t="s">
+      <c r="B237" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E237" s="6" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A237" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A239" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B238" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="E238" s="6" t="s">
+      <c r="B239" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E239" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="30" t="s">
+    <row r="240" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B239" s="31" t="s">
+      <c r="B240" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="E239" s="32" t="s">
+      <c r="E240" s="32" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A240" s="6"/>
-      <c r="C240" s="10"/>
-    </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A241" s="11" t="s">
+      <c r="A241" s="6"/>
+      <c r="C241" s="10"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B241" s="12"/>
-      <c r="C241" s="14" t="s">
+      <c r="B242" s="12"/>
+      <c r="C242" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D241" s="11" t="s">
+      <c r="D242" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E241" s="14" t="s">
+      <c r="E242" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-    </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="5" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B244" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D243" s="24"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A244" s="5" t="s">
+      <c r="D244" s="24"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B245" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D244" s="24"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A245" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="B245" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C245" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="D245" s="23"/>
+      <c r="D245" s="24"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="43" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B246" s="44" t="s">
         <v>98</v>
       </c>
       <c r="C246" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="D246" s="24"/>
+        <v>223</v>
+      </c>
+      <c r="D246" s="23"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="43" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B247" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C247" s="44" t="s">
+      <c r="C247" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D247" s="24"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B248" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C248" s="44" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A248" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>114</v>
+        <v>445</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D250" s="10"/>
+        <v>411</v>
+      </c>
       <c r="E250" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D251" s="10"/>
+      <c r="E251" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B252" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C252" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="E251" s="6" t="s">
+      <c r="E252" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252" s="46" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="B252" s="47" t="s">
+      <c r="B253" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C252" s="44"/>
-      <c r="E252" s="6" t="s">
+      <c r="C253" s="44"/>
+      <c r="E253" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A253" s="5" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B254" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C254" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="5" t="s">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B255" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D254" s="23"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A255" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E255" s="6"/>
+      <c r="D255" s="23"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E256" s="6"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B257" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C257" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E256" s="6" t="s">
+      <c r="E257" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A257" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B257" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C257" s="47"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="46" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="B258" s="47" t="s">
         <v>98</v>
@@ -6009,509 +6013,518 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="46" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B259" s="47" t="s">
         <v>98</v>
       </c>
       <c r="C259" s="47"/>
-      <c r="D259" s="23"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A260" s="43" t="s">
+      <c r="A260" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C260" s="47"/>
+      <c r="D260" s="23"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B260" s="44" t="s">
+      <c r="B261" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C260" s="45" t="s">
+      <c r="C261" s="45" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A261" s="46" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B261" s="47" t="s">
+      <c r="B262" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C261" s="47"/>
-      <c r="E261" s="6" t="s">
+      <c r="C262" s="47"/>
+      <c r="E262" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A262" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D262" s="23"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D263" s="23"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D264" s="23"/>
+        <v>457</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>468</v>
+      </c>
       <c r="E264" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>98</v>
+        <v>407</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D265" s="24"/>
+        <v>230</v>
+      </c>
+      <c r="D265" s="23"/>
+      <c r="E265" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D266" s="24"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B267" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A267" s="46" t="s">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B267" s="47" t="s">
+      <c r="B268" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C267" s="48"/>
-      <c r="E267" s="6" t="s">
+      <c r="C268" s="48"/>
+      <c r="E268" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="5" t="s">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B269" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C269" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E268" s="6" t="s">
+      <c r="E269" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A269" s="43" t="s">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B269" s="44" t="s">
+      <c r="B270" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C269" s="45" t="s">
+      <c r="C270" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D269" s="24"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A270" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>423</v>
-      </c>
+      <c r="D270" s="24"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="5" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>466</v>
+        <v>422</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B273" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C273" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E272" s="6" t="s">
+      <c r="E273" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A273" s="43" t="s">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B273" s="44" t="s">
+      <c r="B274" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C273" s="44" t="s">
+      <c r="C274" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="D273" s="24"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A274" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>426</v>
-      </c>
+      <c r="D274" s="24"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D275" s="24"/>
+        <v>369</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>467</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D276" s="24"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B278" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C278" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="E277" s="6" t="s">
+      <c r="E278" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A278" s="46" t="s">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B278" s="47" t="s">
+      <c r="B279" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C278" s="47"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A279" s="5" t="s">
+      <c r="C279" s="47"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B280" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C280" s="7" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A280" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B280" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C280" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="D280" s="24"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B281" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C281" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D281" s="24"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B281" s="44" t="s">
+      <c r="B282" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C281" s="44" t="s">
+      <c r="C282" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="D281" s="24"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A282" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B282" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C282" s="49"/>
-      <c r="D282" s="6"/>
+      <c r="D282" s="24"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B283" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C283" s="49"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B283" s="47" t="s">
+      <c r="B284" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C283" s="47"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A284" s="43" t="s">
+      <c r="C284" s="47"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B284" s="44" t="s">
+      <c r="B285" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C284" s="44" t="s">
+      <c r="C285" s="44" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A285" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B285" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C285" s="47"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B286" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C286" s="47"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="B286" s="47" t="s">
+      <c r="B287" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C286" s="47"/>
-      <c r="E286" s="6" t="s">
+      <c r="C287" s="47"/>
+      <c r="E287" s="6" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A287" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B289" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C289" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="289" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="43" t="s">
+    <row r="290" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B289" s="44" t="s">
+      <c r="B290" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C289" s="44" t="s">
+      <c r="C290" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="D289" s="23"/>
-      <c r="E289" s="1"/>
-    </row>
-    <row r="290" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="5" t="s">
+      <c r="D290" s="23"/>
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B291" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D290" s="7"/>
-      <c r="E290" s="6" t="s">
+      <c r="D291" s="7"/>
+      <c r="E291" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="43" t="s">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="B291" s="44" t="s">
+      <c r="B292" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="C291" s="47"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A292" s="46" t="s">
+      <c r="C292" s="47"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B292" s="47" t="s">
+      <c r="B293" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C292" s="47"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A293" s="5" t="s">
+      <c r="C293" s="47"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B294" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C294" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="E293" s="6" t="s">
+      <c r="E294" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="5" t="s">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B295" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C295" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E294" s="6" t="s">
+      <c r="E295" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A295" s="5" t="s">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B296" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C296" s="7" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A296" s="46" t="s">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B296" s="47" t="s">
+      <c r="B297" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C296" s="47"/>
-      <c r="E296" s="6" t="s">
+      <c r="C297" s="47"/>
+      <c r="E297" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A297" s="5" t="s">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B298" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E297" s="6" t="s">
+      <c r="E298" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A298" s="5"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="5"/>
-      <c r="B299" s="44" t="s">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="5"/>
+      <c r="B300" s="44" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B300" s="28" t="s">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B301" s="28" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A302" s="5" t="s">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B303" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B302" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B303" s="1"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B305" s="25"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B304" s="1"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B306" s="1"/>
+      <c r="B306" s="25"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B307" s="25"/>
+      <c r="B307" s="1"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B308" s="1"/>
+      <c r="B308" s="25"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B309" s="25"/>
+      <c r="B309" s="1"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B310" s="1"/>
+      <c r="B310" s="25"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B311" s="25"/>
+      <c r="B311" s="1"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B312" s="1"/>
+      <c r="B312" s="25"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B313" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A242:E296">
-    <sortCondition ref="A242:A296"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A243:E297">
+    <sortCondition ref="A243:A297"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A47:A63"/>

--- a/private/ADA_web_organizer.xlsx
+++ b/private/ADA_web_organizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iicpe\Desktop\algorithmicdesign.github.io\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B28B8B-CE33-4A0B-8E84-EA46E12DE0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69465524-9E1D-45C0-8D68-BF792BCB9C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="525">
   <si>
     <t>GRAMATICA: A general 3D shape grammar interpreter targeting the mass customization of housing</t>
   </si>
@@ -1493,9 +1493,6 @@
     <t>Getting a handle on floor plan analysis: Door classification in floor plans and a survey on existing datasets</t>
   </si>
   <si>
-    <t>Behind Algorithmic Geometric Patterns: A framework for façade design exploration</t>
-  </si>
-  <si>
     <t>Converting algorithms into tangible solutions: a workflow for materializing algorithmic façade designs</t>
   </si>
   <si>
@@ -1625,7 +1622,7 @@
     <t>Behind Algorithmic Geometric Patterns: A Framework for Facade Design Exploration</t>
   </si>
   <si>
-    <t>Formal Methods in Architecture</t>
+    <t>actualizar o ano (de 22 para 23)</t>
   </si>
 </sst>
 </file>
@@ -2325,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L313"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2389,7 +2386,7 @@
         <v>384</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>106</v>
@@ -2425,7 +2422,7 @@
         <v>383</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>35</v>
@@ -2437,7 +2434,7 @@
         <v>449</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2515,18 +2512,18 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>291</v>
@@ -2553,10 +2550,10 @@
         <v>380</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>291</v>
@@ -2569,10 +2566,10 @@
     <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
       <c r="B17" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D17" s="26">
         <v>2024</v>
@@ -2585,10 +2582,10 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="57"/>
       <c r="B18" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D18" s="26">
         <v>2024</v>
@@ -2601,10 +2598,10 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="57"/>
       <c r="B19" s="50" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>291</v>
@@ -2620,10 +2617,10 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="57"/>
       <c r="B20" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>503</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>504</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>291</v>
@@ -3568,25 +3565,25 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B69" s="54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C69" s="54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D69" s="54"/>
     </row>
@@ -3602,10 +3599,10 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>305</v>
@@ -3632,7 +3629,7 @@
         <v>479</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>378</v>
@@ -3641,13 +3638,13 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>473</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>378</v>
@@ -3944,7 +3941,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="17" t="s">
         <v>355</v>
@@ -3962,13 +3959,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>2023</v>
       </c>
@@ -3977,22 +3974,25 @@
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="F100" s="22"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>308</v>
@@ -4004,7 +4004,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>2022</v>
       </c>
@@ -4013,37 +4013,29 @@
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
-      <c r="B103" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="33"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F104" s="33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>2021</v>
       </c>
@@ -4052,7 +4044,7 @@
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
         <v>365</v>
@@ -4068,7 +4060,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
         <v>354</v>
@@ -4084,7 +4076,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="1" t="s">
         <v>348</v>
@@ -4093,14 +4085,14 @@
         <v>144</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>2015</v>
       </c>
@@ -4112,7 +4104,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B110" s="20" t="s">
         <v>47</v>
       </c>
@@ -4125,12 +4117,12 @@
       <c r="E110" s="28"/>
       <c r="F110" s="33"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="17" t="s">
         <v>258</v>
@@ -4172,7 +4164,7 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>366</v>
@@ -5511,13 +5503,13 @@
         <v>2023</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -5525,13 +5517,13 @@
         <v>2023</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -5545,7 +5537,7 @@
         <v>81</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -5707,7 +5699,7 @@
         <v>81</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>115</v>
@@ -5765,7 +5757,7 @@
         <v>35</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>113</v>
@@ -5776,7 +5768,7 @@
         <v>106</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>244</v>
@@ -5787,7 +5779,7 @@
         <v>328</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>112</v>
@@ -6489,10 +6481,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B303" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">

--- a/private/ADA_web_organizer.xlsx
+++ b/private/ADA_web_organizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iicpe\Desktop\algorithmicdesign.github.io\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69465524-9E1D-45C0-8D68-BF792BCB9C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCCC2C6-3B0D-406E-BBB1-FC7D6F8D17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADA website control" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="525">
   <si>
     <t>GRAMATICA: A general 3D shape grammar interpreter targeting the mass customization of housing</t>
   </si>
@@ -1907,7 +1907,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2026,7 +2026,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2322,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L313"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2409,13 +2408,15 @@
         <v>328</v>
       </c>
       <c r="D5" s="26">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
@@ -4156,10 +4157,9 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
@@ -5694,7 +5694,7 @@
       <c r="C229" s="10"/>
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>81</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>35</v>
       </c>
